--- a/config_10.13/game_enter_btn_config.xlsx
+++ b/config_10.13/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="15" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1359,15 +1359,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>103#87#100;11;93#36;89#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>16;11;31;93#26#</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>36;89#97;100;11;93;94#58#30#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>103#87#100;11;93;94#36;89#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2318,7 +2318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2386,7 +2386,7 @@
         <v>184</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -4757,7 +4757,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4850,7 +4850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -4908,7 +4908,7 @@
         <v>149</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!D3</f>
